--- a/output/drupal/drupal-flaw-fiaf.xlsx
+++ b/output/drupal/drupal-flaw-fiaf.xlsx
@@ -506,7 +506,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S1848</t>
+          <t>B-php:S1848</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -558,7 +558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>php:S836</t>
+          <t>B-php:S836</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S1764</t>
+          <t>B-php:S1764</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -662,7 +662,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -714,7 +714,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>javascript:S2259</t>
+          <t>B-javascript:S2259</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -766,7 +766,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>php:S2201</t>
+          <t>B-php:S2201</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -818,7 +818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Web:PageWithoutTitleCheck</t>
+          <t>B-Web:PageWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -870,7 +870,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>php:S3699</t>
+          <t>B-php:S3699</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -922,7 +922,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>javascript:S2583</t>
+          <t>B-javascript:S2583</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -974,7 +974,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>javascript:S905</t>
+          <t>B-javascript:S905</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1026,7 +1026,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>php:S3923</t>
+          <t>B-php:S3923</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1078,7 +1078,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>javascript:S2189</t>
+          <t>B-javascript:S2189</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1130,7 +1130,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>javascript:S3403</t>
+          <t>B-javascript:S3403</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1182,7 +1182,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1234,7 +1234,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>php:S2115</t>
+          <t>V-php:S2115</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1286,7 +1286,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>php:S1763</t>
+          <t>B-php:S1763</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1338,7 +1338,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>javascript:S2137</t>
+          <t>B-javascript:S2137</t>
         </is>
       </c>
       <c r="B18" t="n">
